--- a/server/kullanicilar.xlsx
+++ b/server/kullanicilar.xlsx
@@ -421,19 +421,19 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>ömer</v>
+        <v>asd</v>
       </c>
       <c r="B2" t="str">
-        <v>demir</v>
+        <v>asd</v>
       </c>
       <c r="C2" t="str">
-        <v>11</v>
+        <v>asd</v>
       </c>
       <c r="D2" t="str">
-        <v>erkek</v>
+        <v>asd</v>
       </c>
       <c r="E2" t="str">
-        <v>kayseri</v>
+        <v>asd</v>
       </c>
     </row>
   </sheetData>

--- a/server/kullanicilar.xlsx
+++ b/server/kullanicilar.xlsx
@@ -421,7 +421,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>asd</v>
+        <v>aaaaaaaaa</v>
       </c>
       <c r="B2" t="str">
         <v>asd</v>
